--- a/Doc/系统功能整理.xlsx
+++ b/Doc/系统功能整理.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="系统功能整理" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="120">
   <si>
     <t>经销商运营标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以单独的附件，也可以是通知内容，是通知和报告的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往期评估报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,319 @@
   </si>
   <si>
     <t>数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试乘试驾配备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件和数据管理</t>
+  </si>
+  <si>
+    <t>1.可以单独的附件，也可以是通知内容，是通知和报告的列表
+2.需要确认状态怎么进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度资料提交审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量附件导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度资料提交设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服役满足六个月资料提交审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.可以单独的附件，也可以是通知内容，是通知和报告的列表
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.可以单独的附件，也可以是通知内容，是通知和报告的列表，
+2.需要确认状态怎么进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服役满足六个月资料提交设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户体验管理-销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户体验管理-售后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售流程质量评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认播放速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后飞检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关怀管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商人员导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认报告的种类和子类对应查看的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知状态管理，查看和下载分别管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.收件方和收件组需要提前确认分组标准，保2.存状态和发布状态分别管理
+通知业务需要详细沟通，目前确认的类似邮件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营指导管理手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出申请单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉的审核流程需要确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程管理</t>
+  </si>
+  <si>
+    <t>流程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度资料提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新通知显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新通知提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全部通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,17 +608,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,601 +950,4443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:J52"/>
+  <dimension ref="D6:J296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="16" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:10" ht="33" customHeight="1">
       <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="4:10" ht="27">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="4:10" ht="27">
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+    <row r="14" spans="4:10" ht="40.5">
+      <c r="D14" s="7"/>
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="4:10">
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>22</v>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="2"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="7"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="7"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="7"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="7"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="7"/>
+      <c r="E30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="4:10">
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="4:10">
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="4:10" ht="27">
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="4:10">
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="4:10">
-      <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="4:10">
-      <c r="D30" s="2"/>
-      <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" s="7"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="4:10" ht="27">
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="4:10">
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="4:10" ht="27">
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+    <row r="34" spans="4:10">
+      <c r="D34" s="7"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="4:10">
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="7"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="7"/>
+      <c r="E37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="7"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="7"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="7"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="7"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="7"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43" s="7"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="7"/>
+      <c r="E44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="7"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="7"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47" s="7"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H47" s="17"/>
+      <c r="I47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="4:10" ht="27">
+      <c r="D48" s="7"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" s="7"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="4:10">
+      <c r="D50" s="7"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="2" t="s">
+      <c r="H50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="4:10">
+      <c r="D51" s="7"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="2" t="s">
+      <c r="H51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="4:10">
+      <c r="D52" s="7"/>
+      <c r="E52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="4:10">
+      <c r="D53" s="7"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54" s="7"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="4:10">
+      <c r="D55" s="7"/>
+      <c r="E55" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="4:10">
+      <c r="D56" s="7"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57" s="7"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="4:10">
+      <c r="D58" s="7"/>
+      <c r="E58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="4:10">
+      <c r="D59" s="7"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10">
+      <c r="D60" s="8"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="4:10" ht="40.5">
+      <c r="D61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10">
+      <c r="D62" s="7"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10">
+      <c r="D63" s="7"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10">
+      <c r="D64" s="7"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="4:10" ht="40.5">
+      <c r="D65" s="7"/>
+      <c r="E65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10">
+      <c r="D66" s="7"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10">
+      <c r="D67" s="7"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10">
+      <c r="D68" s="7"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="4:10">
+      <c r="D69" s="7"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10">
+      <c r="D70" s="7"/>
+      <c r="E70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10">
+      <c r="D71" s="7"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="D72" s="7"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73" s="7"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10">
+      <c r="D74" s="7"/>
+      <c r="E74" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75" s="7"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="D76" s="7"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="17"/>
+      <c r="I76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="D77" s="7"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="4:10">
+      <c r="D78" s="7"/>
+      <c r="E78" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="17"/>
+      <c r="I78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="4:10">
+      <c r="D79" s="7"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="17"/>
+      <c r="I79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="4:10">
+      <c r="D80" s="7"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="17"/>
+      <c r="I80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81" s="7"/>
+      <c r="E81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="17"/>
+      <c r="I81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82" s="7"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83" s="7"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="D84" s="7"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="4:10">
+      <c r="D85" s="7"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="17"/>
+      <c r="I85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="4:10" ht="27">
+      <c r="D86" s="7"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="4:10">
+      <c r="D87" s="7"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="4:10">
+      <c r="D88" s="7"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="4:10">
+      <c r="D89" s="7"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="4:10">
+      <c r="D90" s="7"/>
+      <c r="E90" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="17"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10">
+      <c r="D91" s="7"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" s="17"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10">
+      <c r="D92" s="7"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" s="17"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10">
+      <c r="D93" s="7"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" s="17"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10">
+      <c r="D94" s="7"/>
+      <c r="E94" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="17"/>
+      <c r="I94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="4:10">
+      <c r="D95" s="7"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="17"/>
+      <c r="I95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="4:10">
+      <c r="D96" s="7"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="4:10">
+      <c r="D97" s="7"/>
+      <c r="E97" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10">
+      <c r="D98" s="7"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H98" s="17"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10">
+      <c r="D99" s="7"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="17"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10">
+      <c r="D100" s="7"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H100" s="17"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10">
+      <c r="D101" s="7"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="17"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10">
+      <c r="D102" s="7"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H102" s="17"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10">
+      <c r="D103" s="7"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="17"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10">
+      <c r="D104" s="7"/>
+      <c r="E104" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="17"/>
+      <c r="I104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="4:10">
+      <c r="D105" s="7"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="4:10">
+      <c r="D106" s="7"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="17"/>
+      <c r="I106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="4:10" ht="27">
+      <c r="D107" s="7"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="4:10">
+      <c r="D108" s="7"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="4:10">
+      <c r="D109" s="7"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="4:10">
+      <c r="D110" s="7"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="4:10">
+      <c r="D111" s="7"/>
+      <c r="E111" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="4:10">
+      <c r="D112" s="7"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113" s="7"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="4:10">
+      <c r="D114" s="7"/>
+      <c r="E114" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" s="18"/>
+      <c r="I114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="D115" s="7"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="18"/>
+      <c r="I115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="D116" s="8"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" s="18"/>
+      <c r="I116" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="4:10" ht="40.5">
+      <c r="D117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="D118" s="7"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="17"/>
+      <c r="I118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119" s="7"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="17"/>
+      <c r="I119" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" s="7"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="17"/>
+      <c r="I120" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="4:10" ht="40.5">
+      <c r="D121" s="7"/>
+      <c r="E121" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="D122" s="7"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="17"/>
+      <c r="I122" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="D123" s="7"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="17"/>
+      <c r="I123" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="D124" s="7"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="17"/>
+      <c r="I124" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="D125" s="7"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10">
+      <c r="D126" s="7"/>
+      <c r="E126" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="D127" s="7"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H127" s="17"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128" s="7"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" s="17"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10">
+      <c r="D129" s="7"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H129" s="17"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10">
+      <c r="D130" s="7"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" s="17"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10">
+      <c r="D131" s="7"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H131" s="17"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10">
+      <c r="D132" s="7"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" s="17"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10">
+      <c r="D133" s="7"/>
+      <c r="E133" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="17"/>
+      <c r="I133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="4:10">
+      <c r="D134" s="7"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="4:10">
+      <c r="D135" s="7"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="17"/>
+      <c r="I135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="4:10" ht="27">
+      <c r="D136" s="7"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="4:10">
+      <c r="D137" s="7"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="4:10">
+      <c r="D138" s="7"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="4:10">
+      <c r="D139" s="7"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="D140" s="7"/>
+      <c r="E140" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="4:10">
+      <c r="D141" s="7"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="18"/>
+      <c r="I141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="4:10">
+      <c r="D142" s="7"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H142" s="18"/>
+      <c r="I142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="4:10" ht="40.5">
+      <c r="D143" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10">
+      <c r="D144" s="7"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="17"/>
+      <c r="I144" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10">
+      <c r="D145" s="7"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="17"/>
+      <c r="I145" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10">
+      <c r="D146" s="7"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H146" s="17"/>
+      <c r="I146" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="4:10" ht="40.5">
+      <c r="D147" s="7"/>
+      <c r="E147" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10">
+      <c r="D148" s="7"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="17"/>
+      <c r="I148" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10">
+      <c r="D149" s="7"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="17"/>
+      <c r="I149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10">
+      <c r="D150" s="7"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H150" s="17"/>
+      <c r="I150" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="4:10">
+      <c r="D151" s="7"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10">
+      <c r="D152" s="7"/>
+      <c r="E152" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10">
+      <c r="D153" s="7"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H153" s="17"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10">
+      <c r="D154" s="7"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H154" s="17"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10">
+      <c r="D155" s="7"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H155" s="17"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10">
+      <c r="D156" s="7"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H156" s="17"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="4:10">
+      <c r="D157" s="7"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H157" s="17"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="4:10">
+      <c r="D158" s="7"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" s="17"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="4:10">
+      <c r="D159" s="7"/>
+      <c r="E159" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="17"/>
+      <c r="I159" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="4:10">
+      <c r="D160" s="7"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="4:10">
+      <c r="D161" s="7"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" s="17"/>
+      <c r="I161" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="4:10" ht="27">
+      <c r="D162" s="7"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="4:10">
+      <c r="D163" s="7"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="4:10">
+      <c r="D164" s="7"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="4:10">
+      <c r="D165" s="7"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="4:10">
+      <c r="D166" s="7"/>
+      <c r="E166" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="4:10">
+      <c r="D167" s="7"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H167" s="18"/>
+      <c r="I167" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="4:10">
+      <c r="D168" s="7"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H168" s="18"/>
+      <c r="I168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="4:10" ht="40.5">
+      <c r="D169" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="4:10">
+      <c r="D170" s="7"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" s="17"/>
+      <c r="I170" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10">
+      <c r="D171" s="7"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="17"/>
+      <c r="I171" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="4:10">
+      <c r="D172" s="7"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" s="17"/>
+      <c r="I172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="4:10" ht="40.5">
+      <c r="D173" s="7"/>
+      <c r="E173" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10">
+      <c r="D174" s="7"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" s="17"/>
+      <c r="I174" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10">
+      <c r="D175" s="7"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="17"/>
+      <c r="I175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10">
+      <c r="D176" s="7"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" s="17"/>
+      <c r="I176" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="4:10">
+      <c r="D177" s="7"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="4:10">
+      <c r="D178" s="7"/>
+      <c r="E178" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="4:10">
+      <c r="D179" s="7"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H179" s="17"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="4:10">
+      <c r="D180" s="7"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H180" s="17"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="4:10">
+      <c r="D181" s="7"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H181" s="17"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="4:10">
+      <c r="D182" s="7"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H182" s="17"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="4:10">
+      <c r="D183" s="7"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H183" s="17"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10">
+      <c r="D184" s="7"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H184" s="17"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10">
+      <c r="D185" s="7"/>
+      <c r="E185" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="17"/>
+      <c r="I185" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="4:10">
+      <c r="D186" s="7"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="4:10">
+      <c r="D187" s="7"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="17"/>
+      <c r="I187" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="4:10" ht="27">
+      <c r="D188" s="7"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="4:10">
+      <c r="D189" s="7"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="4:10">
+      <c r="D190" s="7"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="4:10">
+      <c r="D191" s="7"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H191" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="4:10">
+      <c r="D192" s="7"/>
+      <c r="E192" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="4:10">
+      <c r="D193" s="7"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H193" s="18"/>
+      <c r="I193" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="4:10">
+      <c r="D194" s="7"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H194" s="18"/>
+      <c r="I194" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="4:10">
+      <c r="D195" s="7"/>
+      <c r="E195" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="4:10">
+      <c r="D196" s="7"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H196" s="18"/>
+      <c r="I196" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="4:10">
+      <c r="D197" s="7"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H197" s="18"/>
+      <c r="I197" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="4:10">
+      <c r="D198" s="8"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H198" s="18"/>
+      <c r="I198" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="4:10" ht="27">
+      <c r="D199" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="4:10">
+      <c r="D200" s="7"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="17"/>
+      <c r="I200" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="4:10">
+      <c r="D201" s="7"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="17"/>
+      <c r="I201" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="4:10">
+      <c r="D202" s="7"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H202" s="17"/>
+      <c r="I202" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="4:10" ht="40.5">
+      <c r="D203" s="7"/>
+      <c r="E203" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="204" spans="4:10">
+      <c r="D204" s="7"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="17"/>
+      <c r="I204" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="4:10">
+      <c r="D205" s="7"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="17"/>
+      <c r="I205" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="4:10">
+      <c r="D206" s="7"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H206" s="17"/>
+      <c r="I206" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="4:10">
+      <c r="D207" s="7"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="4:10">
+      <c r="D208" s="7"/>
+      <c r="E208" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209" spans="4:10">
+      <c r="D209" s="7"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H209" s="17"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="210" spans="4:10">
+      <c r="D210" s="7"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H210" s="17"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="4:10">
+      <c r="D211" s="7"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H211" s="17"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="4:10">
+      <c r="D212" s="7"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H212" s="17"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="4:10">
+      <c r="D213" s="7"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H213" s="17"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="4:10">
+      <c r="D214" s="7"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H214" s="17"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="4:10">
+      <c r="D215" s="7"/>
+      <c r="E215" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" s="17"/>
+      <c r="I215" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="4:10">
+      <c r="D216" s="7"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="4:10">
+      <c r="D217" s="7"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="17"/>
+      <c r="I217" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="4:10" ht="27">
+      <c r="D218" s="7"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="4:10">
+      <c r="D219" s="7"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="4:10">
+      <c r="D220" s="7"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="4:10">
+      <c r="D221" s="7"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="4:10">
+      <c r="D222" s="7"/>
+      <c r="E222" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="4:10">
+      <c r="D223" s="7"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H223" s="17"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="4:10">
+      <c r="D224" s="7"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H224" s="17"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="4:10">
+      <c r="D225" s="7"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H225" s="17"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="4:10">
+      <c r="D226" s="7"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H226" s="17"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="4:10">
+      <c r="D227" s="7"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H227" s="17"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="228" spans="4:10">
+      <c r="D228" s="7"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H228" s="17"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="4:10">
+      <c r="D229" s="7"/>
+      <c r="E229" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="F229" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="17"/>
+      <c r="I229" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="4:10">
+      <c r="D230" s="7"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="4:10">
+      <c r="D231" s="7"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H231" s="17"/>
+      <c r="I231" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="4:10">
+      <c r="D232" s="7"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" s="17"/>
+      <c r="I232" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="4:10" ht="27">
+      <c r="D233" s="7"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H233" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="4:10">
+      <c r="D234" s="7"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="4:10">
+      <c r="D235" s="7"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="4:10">
+      <c r="D236" s="7"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H236" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="4:10">
+      <c r="D237" s="7"/>
+      <c r="E237" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="4:10">
+      <c r="D238" s="7"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H238" s="18"/>
+      <c r="I238" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="4:10">
+      <c r="D239" s="7"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H239" s="18"/>
+      <c r="I239" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="4:10">
+      <c r="D240" s="7"/>
+      <c r="E240" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="4:10">
+      <c r="D241" s="7"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H241" s="18"/>
+      <c r="I241" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="4:10">
+      <c r="D242" s="7"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H242" s="18"/>
+      <c r="I242" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="4:10" ht="27">
+      <c r="D243" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="4:10">
+      <c r="D244" s="10"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="17"/>
+      <c r="I244" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="4:10">
+      <c r="D245" s="10"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="17"/>
+      <c r="I245" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="4:10">
+      <c r="D246" s="10"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="17"/>
+      <c r="I246" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="4:10" ht="40.5">
+      <c r="D247" s="10"/>
+      <c r="E247" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="4:10">
+      <c r="D248" s="10"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H248" s="17"/>
+      <c r="I248" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="4:10">
+      <c r="D249" s="10"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" s="17"/>
+      <c r="I249" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="4:10">
+      <c r="D250" s="10"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" s="17"/>
+      <c r="I250" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="4:10">
+      <c r="D251" s="10"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="4:10">
+      <c r="D252" s="10"/>
+      <c r="E252" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H252" s="17"/>
+      <c r="I252" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="4:10">
+      <c r="D253" s="10"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H253" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="4:10">
+      <c r="D254" s="10"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="17"/>
+      <c r="I254" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="4:10" ht="27">
+      <c r="D255" s="10"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H255" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="4:10">
+      <c r="D256" s="10"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H256" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="4:10">
+      <c r="D257" s="10"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H257" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="4:10">
+      <c r="D258" s="10"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H258" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="4:10">
+      <c r="D259" s="10"/>
+      <c r="E259" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="4:10">
+      <c r="D260" s="10"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H260" s="18"/>
+      <c r="I260" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="4:10">
+      <c r="D261" s="10"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H261" s="18"/>
+      <c r="I261" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="4:10">
+      <c r="D262" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G262" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="H262" s="1"/>
+      <c r="I262" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="4:10">
+      <c r="D263" s="7"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="4:10">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="4:10">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="4:10">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="4:10">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="4:10">
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="4:10">
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="4:10">
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="4:10">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="4:10">
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="4:10">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="4:10">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="4:10">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="4:10">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="4:10">
+      <c r="D264" s="7"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H264" s="1"/>
+      <c r="I264" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="4:10">
+      <c r="D265" s="7"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H265" s="1"/>
+      <c r="I265" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="4:10">
+      <c r="D266" s="7"/>
+      <c r="E266" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="4:10">
+      <c r="D267" s="7"/>
+      <c r="E267" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="4:10" ht="54">
+      <c r="D268" s="7"/>
+      <c r="E268" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="4:10">
+      <c r="D269" s="7"/>
+      <c r="E269" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="4:10">
+      <c r="D270" s="7"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H270" s="1"/>
+      <c r="I270" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="4:10">
+      <c r="D271" s="7"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H271" s="1"/>
+      <c r="I271" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="4:10">
+      <c r="D272" s="7"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H272" s="1"/>
+      <c r="I272" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="4:10">
+      <c r="D273" s="8"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H273" s="1"/>
+      <c r="I273" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="4:10">
+      <c r="D274" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G274" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H274" s="1"/>
+      <c r="I274" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="4:10">
+      <c r="D275" s="7"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H275" s="1"/>
+      <c r="I275" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="4:10">
+      <c r="D276" s="7"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="4:10">
+      <c r="D277" s="8"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H277" s="1"/>
+      <c r="I277" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="4:10">
+      <c r="D278" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="4:10">
+      <c r="D279" s="8"/>
+      <c r="E279" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280" spans="4:10">
+      <c r="D280" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="281" spans="4:10">
+      <c r="D281" s="1"/>
+      <c r="E281" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="282" spans="4:10">
+      <c r="D282" s="1"/>
+      <c r="E282" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="283" spans="4:10">
+      <c r="D283" s="1"/>
+      <c r="E283" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="284" spans="4:10">
+      <c r="D284" s="1"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="4:10">
+      <c r="D285" s="1"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="4:10">
+      <c r="D286" s="1"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="4:10">
+      <c r="D287" s="1"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="4:10">
+      <c r="D288" s="1"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="4:10">
+      <c r="D289" s="1"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="4:10">
+      <c r="D290" s="1"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="4:10">
+      <c r="D291" s="1"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="4:10">
+      <c r="D292" s="1"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="4:10">
+      <c r="D293" s="1"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="4:10">
+      <c r="D294" s="1"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="4:10">
+      <c r="D295" s="1"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="4:10">
+      <c r="D296" s="1"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
+  <mergeCells count="119">
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="D262:D273"/>
+    <mergeCell ref="E269:E273"/>
+    <mergeCell ref="F269:F273"/>
+    <mergeCell ref="D274:D277"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="F274:F277"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="F262:F265"/>
+    <mergeCell ref="E208:E214"/>
+    <mergeCell ref="F208:F214"/>
+    <mergeCell ref="E222:E228"/>
+    <mergeCell ref="F222:F228"/>
+    <mergeCell ref="E240:E242"/>
+    <mergeCell ref="F240:F242"/>
+    <mergeCell ref="D243:D261"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="F243:F246"/>
+    <mergeCell ref="E247:E251"/>
+    <mergeCell ref="F247:F251"/>
+    <mergeCell ref="E252:E258"/>
+    <mergeCell ref="F252:F258"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="F259:F261"/>
+    <mergeCell ref="F195:F198"/>
+    <mergeCell ref="E195:E198"/>
+    <mergeCell ref="D169:D198"/>
+    <mergeCell ref="D199:D242"/>
+    <mergeCell ref="E199:E202"/>
+    <mergeCell ref="F199:F202"/>
+    <mergeCell ref="E203:E207"/>
+    <mergeCell ref="F203:F207"/>
+    <mergeCell ref="E215:E221"/>
+    <mergeCell ref="F215:F221"/>
+    <mergeCell ref="E229:E236"/>
+    <mergeCell ref="F229:F236"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="F237:F239"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="E173:E177"/>
+    <mergeCell ref="F173:F177"/>
+    <mergeCell ref="E185:E191"/>
+    <mergeCell ref="F185:F191"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="F126:F132"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="F152:F158"/>
+    <mergeCell ref="E178:E184"/>
+    <mergeCell ref="F178:F184"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="D143:D168"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="F143:F146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="F147:F151"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="F159:F165"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="D117:D142"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="F133:F139"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="E81:E89"/>
+    <mergeCell ref="F81:F89"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="D61:D116"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="F104:F110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F10:F13"/>
+    <mergeCell ref="D10:D60"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/系统功能整理.xlsx
+++ b/Doc/系统功能整理.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统功能整理" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="新增功能整理" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="148">
   <si>
     <t>经销商运营标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,132 @@
   </si>
   <si>
     <t>消息数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照不同的类型进行不同的报告上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.适用于指导手册，评估报告，往期评估报告，反馈视频，帮助文档
+2.报告可以进行删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对申诉流程进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商基本信息的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号基本信息和角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对提交资料的审核管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.申请时需要管理，草稿，正式提交等状态
+2.需要确认审核流程，审核的角色都有哪些
+3.申诉按照不同的类型分为多种
+4.可以设置申诉的开始和结束时间。按照年度季度进行区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.申请时需要管理，草稿，正式提交等状态
+2.需要确认审核流程，审核的角色都有哪些
+3.根据类型不同分为不同类型的资料提交
+4.可以设置提交的开始和结束时间。按照年度季度进行区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度资料提交管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服役满足六个月资料提交管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对规避流程进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.申请时需要管理，草稿，正式提交等状态
+2.需要确认审核流程，审核的角色都有哪些
+3.规避按照不同的类型分为多种
+4.可以设置规避的开始和结束时间。按照年度季度进行区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知发布与查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他需要进行的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统原有数据和文件的导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.服务器迁移的相关事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.可以在系统进行通知登记
+2.通知的对象可以进行分组，分组逻辑需要确认
+3.通知的状态需要进行管理，通知的发布状态和通知查看状态都需要进行管理(含附件),通知接收人可以进行收藏
+4.通知可以显示在首页，并进行提醒。
+5.对于报告类的通知需要显示在报告相关的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统操作的消息要对相关人员进行提醒，且可以关联到详细内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +628,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +652,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +670,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -595,11 +730,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,31 +895,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,6 +915,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,16 +1269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D6:J296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" topLeftCell="B235" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.125" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="11.125" customWidth="1"/>
@@ -971,7 +1288,7 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -991,19 +1308,19 @@
       </c>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1014,13 +1331,13 @@
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="2" t="s">
         <v>98</v>
       </c>
@@ -1029,32 +1346,32 @@
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="8"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="4:10" ht="27">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1065,13 +1382,13 @@
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="7"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2" t="s">
         <v>98</v>
       </c>
@@ -1080,13 +1397,13 @@
       </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="2" t="s">
         <v>98</v>
       </c>
@@ -1095,30 +1412,30 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="7"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="4:10" ht="40.5">
-      <c r="D14" s="7"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1129,13 +1446,13 @@
       </c>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="2" t="s">
         <v>98</v>
       </c>
@@ -1144,13 +1461,13 @@
       </c>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="7"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="2" t="s">
         <v>98</v>
       </c>
@@ -1159,26 +1476,26 @@
       </c>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="7"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="7"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -1189,17 +1506,17 @@
       </c>
     </row>
     <row r="19" spans="4:10">
-      <c r="D19" s="7"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1208,13 +1525,13 @@
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="7"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2" t="s">
         <v>98</v>
       </c>
@@ -1223,26 +1540,26 @@
       </c>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="7"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -1253,17 +1570,17 @@
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="7"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I23" s="2"/>
@@ -1272,108 +1589,108 @@
       </c>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="7"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="7"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -1382,26 +1699,26 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="4:10">
-      <c r="D32" s="7"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="4:10" ht="27">
-      <c r="D33" s="7"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -1410,13 +1727,13 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="7"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1425,13 +1742,13 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="4:10">
-      <c r="D35" s="7"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -1440,13 +1757,13 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="D36" s="7"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="8"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -1455,17 +1772,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="4:10">
-      <c r="D37" s="7"/>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I37" s="2"/>
@@ -1474,108 +1791,108 @@
       </c>
     </row>
     <row r="38" spans="4:10">
-      <c r="D38" s="7"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="4:10">
-      <c r="D39" s="7"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="4:10">
-      <c r="D40" s="7"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="4:10">
-      <c r="D41" s="7"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="4:10">
-      <c r="D42" s="7"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="4:10">
-      <c r="D43" s="7"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="4:10">
-      <c r="D44" s="7"/>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="4:10">
-      <c r="D45" s="7"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -1584,39 +1901,39 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="4:10">
-      <c r="D46" s="7"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="4:10">
-      <c r="D47" s="7"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="4:10" ht="27">
-      <c r="D48" s="7"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -1625,13 +1942,13 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="7"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -1640,13 +1957,13 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="7"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -1655,13 +1972,13 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="4:10">
-      <c r="D51" s="7"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="8"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -1670,17 +1987,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="7"/>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -1689,43 +2006,43 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="7"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="9" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="7"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="18"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="4:10">
-      <c r="D55" s="7"/>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -1734,56 +2051,56 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="7"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="9" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="18"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="7"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="18"/>
+      <c r="H57" s="11"/>
       <c r="I57" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="7"/>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="7"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="9" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="18"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="2" t="s">
         <v>98</v>
       </c>
@@ -1792,32 +2109,32 @@
       </c>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="8"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="11"/>
       <c r="I60" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="4:10" ht="40.5">
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="H61" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -1828,13 +2145,13 @@
       </c>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="7"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="2" t="s">
         <v>98</v>
       </c>
@@ -1843,13 +2160,13 @@
       </c>
     </row>
     <row r="63" spans="4:10">
-      <c r="D63" s="7"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="2" t="s">
         <v>98</v>
       </c>
@@ -1858,30 +2175,30 @@
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="7"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="4:10" ht="40.5">
-      <c r="D65" s="7"/>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="10" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -1892,13 +2209,13 @@
       </c>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="7"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="7"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="2" t="s">
         <v>98</v>
       </c>
@@ -1907,13 +2224,13 @@
       </c>
     </row>
     <row r="67" spans="4:10">
-      <c r="D67" s="7"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="7"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="2" t="s">
         <v>98</v>
       </c>
@@ -1922,26 +2239,26 @@
       </c>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="7"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="7"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="7"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="8"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="17" t="s">
+      <c r="H69" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -1952,112 +2269,112 @@
       </c>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="7"/>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="17"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="7"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="7"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="17"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="1"/>
       <c r="J71" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="7"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15"/>
       <c r="G72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="17"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="1"/>
       <c r="J72" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="7"/>
-      <c r="E73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="5"/>
       <c r="G73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H73" s="17"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="1"/>
       <c r="J73" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="7"/>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="4:10">
-      <c r="D75" s="7"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="7"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="17"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="7"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="7"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="7"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="8"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -2066,73 +2383,73 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="7"/>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="4:10">
-      <c r="D79" s="7"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="7"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="17"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="7"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="7"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H80" s="17"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="7"/>
-      <c r="E81" s="12" t="s">
+      <c r="D81" s="15"/>
+      <c r="E81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="17"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="7"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="7"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="15"/>
       <c r="G82" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -2141,52 +2458,52 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="7"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="7"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="15"/>
       <c r="G83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="7"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="7"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="15"/>
       <c r="G84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H84" s="17"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="7"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="7"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="15"/>
       <c r="G85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="17"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="4:10" ht="27">
-      <c r="D86" s="7"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="7"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -2195,13 +2512,13 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="4:10">
-      <c r="D87" s="7"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="7"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H87" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -2210,13 +2527,13 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="7"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="7"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="15"/>
       <c r="G88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -2225,13 +2542,13 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="7"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="8"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -2240,116 +2557,116 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="7"/>
-      <c r="E90" s="12" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="17"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="1"/>
       <c r="J90" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="4:10">
-      <c r="D91" s="7"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="7"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="15"/>
       <c r="G91" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H91" s="17"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="1"/>
       <c r="J91" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="7"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="7"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="15"/>
       <c r="G92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="17"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="1"/>
       <c r="J92" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="7"/>
-      <c r="E93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="5"/>
       <c r="G93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H93" s="17"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="1"/>
       <c r="J93" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="7"/>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H94" s="17"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="7"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="7"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="17"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="7"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="7"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H96" s="17"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="7"/>
-      <c r="E97" s="12" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H97" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I97" s="2"/>
@@ -2358,108 +2675,108 @@
       </c>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="7"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="7"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H98" s="17"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="7"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="7"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="15"/>
       <c r="G99" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="7"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="7"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="17"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="7"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="7"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="15"/>
       <c r="G101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="17"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="7"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="7"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="15"/>
       <c r="G102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H102" s="17"/>
+      <c r="H102" s="10"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="4:10">
-      <c r="D103" s="7"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="8"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H103" s="17"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="7"/>
-      <c r="E104" s="12" t="s">
+      <c r="D104" s="15"/>
+      <c r="E104" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="17"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="7"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="7"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="s">
@@ -2468,26 +2785,26 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="7"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="7"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H106" s="17"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="4:10" ht="27">
-      <c r="D107" s="7"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="7"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="17" t="s">
+      <c r="H107" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="2" t="s">
@@ -2496,13 +2813,13 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="7"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="7"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="15"/>
       <c r="G108" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H108" s="17" t="s">
+      <c r="H108" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I108" s="2" t="s">
@@ -2511,13 +2828,13 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="7"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="7"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="15"/>
       <c r="G109" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H109" s="17" t="s">
+      <c r="H109" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I109" s="2" t="s">
@@ -2526,13 +2843,13 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="7"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="8"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="17" t="s">
+      <c r="H110" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -2541,17 +2858,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="7"/>
-      <c r="E111" s="12" t="s">
+      <c r="D111" s="15"/>
+      <c r="E111" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="18" t="s">
+      <c r="H111" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I111" s="2" t="s">
@@ -2560,43 +2877,43 @@
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="7"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="9" t="s">
+      <c r="D112" s="15"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H112" s="18"/>
+      <c r="H112" s="11"/>
       <c r="I112" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="7"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9" t="s">
+      <c r="D113" s="15"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H113" s="18"/>
+      <c r="H113" s="11"/>
       <c r="I113" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="7"/>
-      <c r="E114" s="12" t="s">
+      <c r="D114" s="15"/>
+      <c r="E114" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H114" s="18"/>
+      <c r="H114" s="11"/>
       <c r="I114" s="2" t="s">
         <v>98</v>
       </c>
@@ -2605,13 +2922,13 @@
       </c>
     </row>
     <row r="115" spans="4:10">
-      <c r="D115" s="7"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="9" t="s">
+      <c r="D115" s="15"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H115" s="18"/>
+      <c r="H115" s="11"/>
       <c r="I115" s="2" t="s">
         <v>98</v>
       </c>
@@ -2620,32 +2937,32 @@
       </c>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="8"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9" t="s">
+      <c r="D116" s="14"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H116" s="18"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="4:10" ht="40.5">
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H117" s="17" t="s">
+      <c r="H117" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -2656,13 +2973,13 @@
       </c>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="7"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="7"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="15"/>
       <c r="G118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="17"/>
+      <c r="H118" s="10"/>
       <c r="I118" s="2" t="s">
         <v>98</v>
       </c>
@@ -2671,13 +2988,13 @@
       </c>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="7"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="7"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="15"/>
       <c r="G119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="17"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="2" t="s">
         <v>98</v>
       </c>
@@ -2686,30 +3003,30 @@
       </c>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="7"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="8"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="17"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="4:10" ht="40.5">
-      <c r="D121" s="7"/>
-      <c r="E121" s="12" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H121" s="10" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="2" t="s">
@@ -2720,13 +3037,13 @@
       </c>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="7"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="7"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H122" s="17"/>
+      <c r="H122" s="10"/>
       <c r="I122" s="2" t="s">
         <v>98</v>
       </c>
@@ -2735,13 +3052,13 @@
       </c>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="7"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="7"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="15"/>
       <c r="G123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="17"/>
+      <c r="H123" s="10"/>
       <c r="I123" s="2" t="s">
         <v>98</v>
       </c>
@@ -2750,26 +3067,26 @@
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="7"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="7"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="15"/>
       <c r="G124" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H124" s="17"/>
+      <c r="H124" s="10"/>
       <c r="I124" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="7"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="8"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="17" t="s">
+      <c r="H125" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -2780,17 +3097,17 @@
       </c>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="7"/>
-      <c r="E126" s="12" t="s">
+      <c r="D126" s="15"/>
+      <c r="E126" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H126" s="17" t="s">
+      <c r="H126" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I126" s="2"/>
@@ -2799,108 +3116,108 @@
       </c>
     </row>
     <row r="127" spans="4:10">
-      <c r="D127" s="7"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="7"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="15"/>
       <c r="G127" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H127" s="17"/>
+      <c r="H127" s="10"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="7"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="7"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="15"/>
       <c r="G128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H128" s="17"/>
+      <c r="H128" s="10"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="7"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="7"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="15"/>
       <c r="G129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H129" s="17"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="7"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="7"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="15"/>
       <c r="G130" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H130" s="17"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="7"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="7"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="15"/>
       <c r="G131" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H131" s="17"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="7"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="8"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H132" s="17"/>
+      <c r="H132" s="10"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="7"/>
-      <c r="E133" s="12" t="s">
+      <c r="D133" s="15"/>
+      <c r="E133" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="17"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="7"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="7"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="17" t="s">
+      <c r="H134" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="s">
@@ -2909,26 +3226,26 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="7"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="7"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="15"/>
       <c r="G135" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H135" s="17"/>
+      <c r="H135" s="10"/>
       <c r="I135" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="4:10" ht="27">
-      <c r="D136" s="7"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="7"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="15"/>
       <c r="G136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="H136" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -2937,13 +3254,13 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="7"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="7"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="15"/>
       <c r="G137" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H137" s="17" t="s">
+      <c r="H137" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -2952,13 +3269,13 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="7"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="7"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="15"/>
       <c r="G138" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H138" s="17" t="s">
+      <c r="H138" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -2967,13 +3284,13 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="4:10">
-      <c r="D139" s="7"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="8"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H139" s="17" t="s">
+      <c r="H139" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -2982,17 +3299,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="4:10">
-      <c r="D140" s="7"/>
-      <c r="E140" s="12" t="s">
+      <c r="D140" s="15"/>
+      <c r="E140" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -3001,45 +3318,45 @@
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="4:10">
-      <c r="D141" s="7"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="9" t="s">
+      <c r="D141" s="15"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H141" s="18"/>
+      <c r="H141" s="11"/>
       <c r="I141" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="4:10">
-      <c r="D142" s="7"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="9" t="s">
+      <c r="D142" s="15"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="18"/>
+      <c r="H142" s="11"/>
       <c r="I142" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143" spans="4:10" ht="40.5">
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="17" t="s">
+      <c r="H143" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -3050,13 +3367,13 @@
       </c>
     </row>
     <row r="144" spans="4:10">
-      <c r="D144" s="7"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="7"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="15"/>
       <c r="G144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H144" s="17"/>
+      <c r="H144" s="10"/>
       <c r="I144" s="2" t="s">
         <v>98</v>
       </c>
@@ -3065,13 +3382,13 @@
       </c>
     </row>
     <row r="145" spans="4:10">
-      <c r="D145" s="7"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="7"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="15"/>
       <c r="G145" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="17"/>
+      <c r="H145" s="10"/>
       <c r="I145" s="2" t="s">
         <v>98</v>
       </c>
@@ -3080,30 +3397,30 @@
       </c>
     </row>
     <row r="146" spans="4:10">
-      <c r="D146" s="7"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="8"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H146" s="17"/>
+      <c r="H146" s="10"/>
       <c r="I146" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="4:10" ht="40.5">
-      <c r="D147" s="7"/>
-      <c r="E147" s="12" t="s">
+      <c r="D147" s="15"/>
+      <c r="E147" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F147" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="17" t="s">
+      <c r="H147" s="10" t="s">
         <v>62</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -3114,13 +3431,13 @@
       </c>
     </row>
     <row r="148" spans="4:10">
-      <c r="D148" s="7"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="7"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="15"/>
       <c r="G148" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H148" s="17"/>
+      <c r="H148" s="10"/>
       <c r="I148" s="2" t="s">
         <v>98</v>
       </c>
@@ -3129,13 +3446,13 @@
       </c>
     </row>
     <row r="149" spans="4:10">
-      <c r="D149" s="7"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="7"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="15"/>
       <c r="G149" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="17"/>
+      <c r="H149" s="10"/>
       <c r="I149" s="2" t="s">
         <v>98</v>
       </c>
@@ -3144,26 +3461,26 @@
       </c>
     </row>
     <row r="150" spans="4:10">
-      <c r="D150" s="7"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="7"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="15"/>
       <c r="G150" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="17"/>
+      <c r="H150" s="10"/>
       <c r="I150" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="4:10">
-      <c r="D151" s="7"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="8"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="14"/>
       <c r="G151" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H151" s="17" t="s">
+      <c r="H151" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -3174,17 +3491,17 @@
       </c>
     </row>
     <row r="152" spans="4:10">
-      <c r="D152" s="7"/>
-      <c r="E152" s="12" t="s">
+      <c r="D152" s="15"/>
+      <c r="E152" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H152" s="17" t="s">
+      <c r="H152" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I152" s="2"/>
@@ -3193,108 +3510,108 @@
       </c>
     </row>
     <row r="153" spans="4:10">
-      <c r="D153" s="7"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="7"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="15"/>
       <c r="G153" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H153" s="17"/>
+      <c r="H153" s="10"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="154" spans="4:10">
-      <c r="D154" s="7"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="7"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="15"/>
       <c r="G154" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H154" s="17"/>
+      <c r="H154" s="10"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="155" spans="4:10">
-      <c r="D155" s="7"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="7"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="15"/>
       <c r="G155" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H155" s="17"/>
+      <c r="H155" s="10"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="156" spans="4:10">
-      <c r="D156" s="7"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="7"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="15"/>
       <c r="G156" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H156" s="17"/>
+      <c r="H156" s="10"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="157" spans="4:10">
-      <c r="D157" s="7"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="7"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="15"/>
       <c r="G157" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H157" s="17"/>
+      <c r="H157" s="10"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="158" spans="4:10">
-      <c r="D158" s="7"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="8"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H158" s="17"/>
+      <c r="H158" s="10"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="159" spans="4:10">
-      <c r="D159" s="7"/>
-      <c r="E159" s="12" t="s">
+      <c r="D159" s="15"/>
+      <c r="E159" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F159" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H159" s="17"/>
+      <c r="H159" s="10"/>
       <c r="I159" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="4:10">
-      <c r="D160" s="7"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="7"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="15"/>
       <c r="G160" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H160" s="17" t="s">
+      <c r="H160" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="s">
@@ -3303,26 +3620,26 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="4:10">
-      <c r="D161" s="7"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="7"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="15"/>
       <c r="G161" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H161" s="17"/>
+      <c r="H161" s="10"/>
       <c r="I161" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="4:10" ht="27">
-      <c r="D162" s="7"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="7"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H162" s="17" t="s">
+      <c r="H162" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I162" s="2" t="s">
@@ -3331,13 +3648,13 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="4:10">
-      <c r="D163" s="7"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="7"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="15"/>
       <c r="G163" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H163" s="17" t="s">
+      <c r="H163" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I163" s="2" t="s">
@@ -3346,13 +3663,13 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="4:10">
-      <c r="D164" s="7"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="7"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="15"/>
       <c r="G164" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H164" s="17" t="s">
+      <c r="H164" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I164" s="2" t="s">
@@ -3361,13 +3678,13 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="4:10">
-      <c r="D165" s="7"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="8"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="14"/>
       <c r="G165" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H165" s="17" t="s">
+      <c r="H165" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -3376,17 +3693,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="4:10">
-      <c r="D166" s="7"/>
-      <c r="E166" s="12" t="s">
+      <c r="D166" s="15"/>
+      <c r="E166" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H166" s="18" t="s">
+      <c r="H166" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I166" s="2" t="s">
@@ -3395,45 +3712,45 @@
       <c r="J166" s="1"/>
     </row>
     <row r="167" spans="4:10">
-      <c r="D167" s="7"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="9" t="s">
+      <c r="D167" s="15"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H167" s="18"/>
+      <c r="H167" s="11"/>
       <c r="I167" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168" spans="4:10">
-      <c r="D168" s="7"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="9" t="s">
+      <c r="D168" s="15"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H168" s="18"/>
+      <c r="H168" s="11"/>
       <c r="I168" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169" spans="4:10" ht="40.5">
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E169" s="12" t="s">
+      <c r="E169" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F169" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H169" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I169" s="2" t="s">
@@ -3444,13 +3761,13 @@
       </c>
     </row>
     <row r="170" spans="4:10">
-      <c r="D170" s="7"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="7"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="15"/>
       <c r="G170" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H170" s="17"/>
+      <c r="H170" s="10"/>
       <c r="I170" s="2" t="s">
         <v>98</v>
       </c>
@@ -3459,13 +3776,13 @@
       </c>
     </row>
     <row r="171" spans="4:10">
-      <c r="D171" s="7"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="7"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="15"/>
       <c r="G171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="17"/>
+      <c r="H171" s="10"/>
       <c r="I171" s="2" t="s">
         <v>98</v>
       </c>
@@ -3474,30 +3791,30 @@
       </c>
     </row>
     <row r="172" spans="4:10">
-      <c r="D172" s="7"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="8"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="14"/>
       <c r="G172" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="17"/>
+      <c r="H172" s="10"/>
       <c r="I172" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="4:10" ht="40.5">
-      <c r="D173" s="7"/>
-      <c r="E173" s="12" t="s">
+      <c r="D173" s="15"/>
+      <c r="E173" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H173" s="17" t="s">
+      <c r="H173" s="10" t="s">
         <v>62</v>
       </c>
       <c r="I173" s="2" t="s">
@@ -3508,13 +3825,13 @@
       </c>
     </row>
     <row r="174" spans="4:10">
-      <c r="D174" s="7"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="7"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="15"/>
       <c r="G174" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H174" s="17"/>
+      <c r="H174" s="10"/>
       <c r="I174" s="2" t="s">
         <v>98</v>
       </c>
@@ -3523,13 +3840,13 @@
       </c>
     </row>
     <row r="175" spans="4:10">
-      <c r="D175" s="7"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="7"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="15"/>
       <c r="G175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="17"/>
+      <c r="H175" s="10"/>
       <c r="I175" s="2" t="s">
         <v>98</v>
       </c>
@@ -3538,26 +3855,26 @@
       </c>
     </row>
     <row r="176" spans="4:10">
-      <c r="D176" s="7"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="7"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="15"/>
       <c r="G176" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H176" s="17"/>
+      <c r="H176" s="10"/>
       <c r="I176" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="4:10">
-      <c r="D177" s="7"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="8"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="14"/>
       <c r="G177" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H177" s="17" t="s">
+      <c r="H177" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I177" s="2" t="s">
@@ -3568,17 +3885,17 @@
       </c>
     </row>
     <row r="178" spans="4:10">
-      <c r="D178" s="7"/>
-      <c r="E178" s="12" t="s">
+      <c r="D178" s="15"/>
+      <c r="E178" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H178" s="17" t="s">
+      <c r="H178" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I178" s="2"/>
@@ -3587,108 +3904,108 @@
       </c>
     </row>
     <row r="179" spans="4:10">
-      <c r="D179" s="7"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="7"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="15"/>
       <c r="G179" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H179" s="17"/>
+      <c r="H179" s="10"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="180" spans="4:10">
-      <c r="D180" s="7"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="7"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="15"/>
       <c r="G180" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H180" s="17"/>
+      <c r="H180" s="10"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="181" spans="4:10">
-      <c r="D181" s="7"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="7"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="15"/>
       <c r="G181" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H181" s="17"/>
+      <c r="H181" s="10"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="182" spans="4:10">
-      <c r="D182" s="7"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="7"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="15"/>
       <c r="G182" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H182" s="17"/>
+      <c r="H182" s="10"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="183" spans="4:10">
-      <c r="D183" s="7"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="7"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="15"/>
       <c r="G183" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H183" s="17"/>
+      <c r="H183" s="10"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="184" spans="4:10">
-      <c r="D184" s="7"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="8"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="14"/>
       <c r="G184" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H184" s="17"/>
+      <c r="H184" s="10"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="185" spans="4:10">
-      <c r="D185" s="7"/>
-      <c r="E185" s="12" t="s">
+      <c r="D185" s="15"/>
+      <c r="E185" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F185" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="17"/>
+      <c r="H185" s="10"/>
       <c r="I185" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="4:10">
-      <c r="D186" s="7"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="7"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="15"/>
       <c r="G186" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H186" s="17" t="s">
+      <c r="H186" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I186" s="2" t="s">
@@ -3697,26 +4014,26 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="4:10">
-      <c r="D187" s="7"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="7"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="15"/>
       <c r="G187" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H187" s="17"/>
+      <c r="H187" s="10"/>
       <c r="I187" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="4:10" ht="27">
-      <c r="D188" s="7"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="7"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="15"/>
       <c r="G188" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H188" s="17" t="s">
+      <c r="H188" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I188" s="2" t="s">
@@ -3725,13 +4042,13 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="4:10">
-      <c r="D189" s="7"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="7"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="15"/>
       <c r="G189" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H189" s="17" t="s">
+      <c r="H189" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I189" s="2" t="s">
@@ -3740,13 +4057,13 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="4:10">
-      <c r="D190" s="7"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="7"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="15"/>
       <c r="G190" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H190" s="17" t="s">
+      <c r="H190" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I190" s="2" t="s">
@@ -3755,13 +4072,13 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="4:10">
-      <c r="D191" s="7"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="8"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H191" s="17" t="s">
+      <c r="H191" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I191" s="2" t="s">
@@ -3770,17 +4087,17 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="4:10">
-      <c r="D192" s="7"/>
-      <c r="E192" s="12" t="s">
+      <c r="D192" s="15"/>
+      <c r="E192" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F192" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G192" s="9" t="s">
+      <c r="G192" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H192" s="18" t="s">
+      <c r="H192" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I192" s="2" t="s">
@@ -3789,40 +4106,40 @@
       <c r="J192" s="1"/>
     </row>
     <row r="193" spans="4:10">
-      <c r="D193" s="7"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="9" t="s">
+      <c r="D193" s="15"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H193" s="18"/>
+      <c r="H193" s="11"/>
       <c r="I193" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194" spans="4:10">
-      <c r="D194" s="7"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="9" t="s">
+      <c r="D194" s="15"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H194" s="18"/>
+      <c r="H194" s="11"/>
       <c r="I194" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195" spans="4:10">
-      <c r="D195" s="7"/>
-      <c r="E195" s="12" t="s">
+      <c r="D195" s="15"/>
+      <c r="E195" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="F195" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G195" s="9" t="s">
+      <c r="G195" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -3836,13 +4153,13 @@
       </c>
     </row>
     <row r="196" spans="4:10">
-      <c r="D196" s="7"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="9" t="s">
+      <c r="D196" s="15"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H196" s="18"/>
+      <c r="H196" s="11"/>
       <c r="I196" s="2" t="s">
         <v>98</v>
       </c>
@@ -3851,13 +4168,13 @@
       </c>
     </row>
     <row r="197" spans="4:10">
-      <c r="D197" s="7"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="9" t="s">
+      <c r="D197" s="15"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H197" s="18"/>
+      <c r="H197" s="11"/>
       <c r="I197" s="2" t="s">
         <v>98</v>
       </c>
@@ -3866,13 +4183,13 @@
       </c>
     </row>
     <row r="198" spans="4:10">
-      <c r="D198" s="8"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="9" t="s">
+      <c r="D198" s="14"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H198" s="18"/>
+      <c r="H198" s="11"/>
       <c r="I198" s="2" t="s">
         <v>98</v>
       </c>
@@ -3881,19 +4198,19 @@
       </c>
     </row>
     <row r="199" spans="4:10" ht="27">
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E199" s="12" t="s">
+      <c r="E199" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="F199" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H199" s="17" t="s">
+      <c r="H199" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I199" s="2" t="s">
@@ -3904,13 +4221,13 @@
       </c>
     </row>
     <row r="200" spans="4:10">
-      <c r="D200" s="7"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="7"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="15"/>
       <c r="G200" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H200" s="17"/>
+      <c r="H200" s="10"/>
       <c r="I200" s="2" t="s">
         <v>98</v>
       </c>
@@ -3919,13 +4236,13 @@
       </c>
     </row>
     <row r="201" spans="4:10">
-      <c r="D201" s="7"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="7"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="15"/>
       <c r="G201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H201" s="17"/>
+      <c r="H201" s="10"/>
       <c r="I201" s="2" t="s">
         <v>98</v>
       </c>
@@ -3934,30 +4251,30 @@
       </c>
     </row>
     <row r="202" spans="4:10">
-      <c r="D202" s="7"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="8"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="14"/>
       <c r="G202" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H202" s="17"/>
+      <c r="H202" s="10"/>
       <c r="I202" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="4:10" ht="40.5">
-      <c r="D203" s="7"/>
-      <c r="E203" s="12" t="s">
+      <c r="D203" s="15"/>
+      <c r="E203" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F203" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H203" s="17" t="s">
+      <c r="H203" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I203" s="2" t="s">
@@ -3968,13 +4285,13 @@
       </c>
     </row>
     <row r="204" spans="4:10">
-      <c r="D204" s="7"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="7"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="15"/>
       <c r="G204" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H204" s="17"/>
+      <c r="H204" s="10"/>
       <c r="I204" s="2" t="s">
         <v>98</v>
       </c>
@@ -3983,13 +4300,13 @@
       </c>
     </row>
     <row r="205" spans="4:10">
-      <c r="D205" s="7"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="7"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="15"/>
       <c r="G205" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H205" s="17"/>
+      <c r="H205" s="10"/>
       <c r="I205" s="2" t="s">
         <v>98</v>
       </c>
@@ -3998,26 +4315,26 @@
       </c>
     </row>
     <row r="206" spans="4:10">
-      <c r="D206" s="7"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="7"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="15"/>
       <c r="G206" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H206" s="17"/>
+      <c r="H206" s="10"/>
       <c r="I206" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="4:10">
-      <c r="D207" s="7"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="8"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="14"/>
       <c r="G207" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H207" s="17" t="s">
+      <c r="H207" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I207" s="2" t="s">
@@ -4028,17 +4345,17 @@
       </c>
     </row>
     <row r="208" spans="4:10">
-      <c r="D208" s="7"/>
-      <c r="E208" s="12" t="s">
+      <c r="D208" s="15"/>
+      <c r="E208" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F208" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H208" s="17" t="s">
+      <c r="H208" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I208" s="2"/>
@@ -4047,108 +4364,108 @@
       </c>
     </row>
     <row r="209" spans="4:10">
-      <c r="D209" s="7"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="7"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="15"/>
       <c r="G209" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H209" s="17"/>
+      <c r="H209" s="10"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="210" spans="4:10">
-      <c r="D210" s="7"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="7"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="15"/>
       <c r="G210" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H210" s="17"/>
+      <c r="H210" s="10"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="211" spans="4:10">
-      <c r="D211" s="7"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="7"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="15"/>
       <c r="G211" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H211" s="17"/>
+      <c r="H211" s="10"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="212" spans="4:10">
-      <c r="D212" s="7"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="7"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="15"/>
       <c r="G212" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H212" s="17"/>
+      <c r="H212" s="10"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="213" spans="4:10">
-      <c r="D213" s="7"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="7"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="15"/>
       <c r="G213" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H213" s="17"/>
+      <c r="H213" s="10"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="214" spans="4:10">
-      <c r="D214" s="7"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="8"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="14"/>
       <c r="G214" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H214" s="17"/>
+      <c r="H214" s="10"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="215" spans="4:10">
-      <c r="D215" s="7"/>
-      <c r="E215" s="12" t="s">
+      <c r="D215" s="15"/>
+      <c r="E215" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H215" s="17"/>
+      <c r="H215" s="10"/>
       <c r="I215" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="4:10">
-      <c r="D216" s="7"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="7"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="15"/>
       <c r="G216" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H216" s="17" t="s">
+      <c r="H216" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I216" s="2" t="s">
@@ -4157,26 +4474,26 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="4:10">
-      <c r="D217" s="7"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="7"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="15"/>
       <c r="G217" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H217" s="17"/>
+      <c r="H217" s="10"/>
       <c r="I217" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="4:10" ht="27">
-      <c r="D218" s="7"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="7"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="15"/>
       <c r="G218" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H218" s="17" t="s">
+      <c r="H218" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I218" s="2" t="s">
@@ -4185,13 +4502,13 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="4:10">
-      <c r="D219" s="7"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="7"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="15"/>
       <c r="G219" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H219" s="17" t="s">
+      <c r="H219" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I219" s="2" t="s">
@@ -4200,13 +4517,13 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="4:10">
-      <c r="D220" s="7"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="7"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="15"/>
       <c r="G220" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H220" s="17" t="s">
+      <c r="H220" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I220" s="2" t="s">
@@ -4215,13 +4532,13 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="4:10">
-      <c r="D221" s="7"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="8"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="14"/>
       <c r="G221" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H221" s="17" t="s">
+      <c r="H221" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I221" s="2" t="s">
@@ -4230,17 +4547,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="4:10">
-      <c r="D222" s="7"/>
-      <c r="E222" s="12" t="s">
+      <c r="D222" s="15"/>
+      <c r="E222" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F222" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H222" s="17" t="s">
+      <c r="H222" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I222" s="2"/>
@@ -4249,108 +4566,108 @@
       </c>
     </row>
     <row r="223" spans="4:10">
-      <c r="D223" s="7"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="7"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="15"/>
       <c r="G223" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H223" s="17"/>
+      <c r="H223" s="10"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="224" spans="4:10">
-      <c r="D224" s="7"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="7"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="15"/>
       <c r="G224" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H224" s="17"/>
+      <c r="H224" s="10"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="225" spans="4:10">
-      <c r="D225" s="7"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="7"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="15"/>
       <c r="G225" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H225" s="17"/>
+      <c r="H225" s="10"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="226" spans="4:10">
-      <c r="D226" s="7"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="7"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="15"/>
       <c r="G226" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H226" s="17"/>
+      <c r="H226" s="10"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="227" spans="4:10">
-      <c r="D227" s="7"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="7"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="15"/>
       <c r="G227" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H227" s="17"/>
+      <c r="H227" s="10"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="228" spans="4:10">
-      <c r="D228" s="7"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="8"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="14"/>
       <c r="G228" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H228" s="17"/>
+      <c r="H228" s="10"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="229" spans="4:10">
-      <c r="D229" s="7"/>
-      <c r="E229" s="12" t="s">
+      <c r="D229" s="15"/>
+      <c r="E229" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F229" s="6" t="s">
+      <c r="F229" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H229" s="17"/>
+      <c r="H229" s="10"/>
       <c r="I229" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="4:10">
-      <c r="D230" s="7"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="7"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="15"/>
       <c r="G230" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H230" s="17" t="s">
+      <c r="H230" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I230" s="2" t="s">
@@ -4359,39 +4676,39 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="4:10">
-      <c r="D231" s="7"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="7"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="15"/>
       <c r="G231" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H231" s="17"/>
+      <c r="H231" s="10"/>
       <c r="I231" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="4:10">
-      <c r="D232" s="7"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="7"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="15"/>
       <c r="G232" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H232" s="17"/>
+      <c r="H232" s="10"/>
       <c r="I232" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="4:10" ht="27">
-      <c r="D233" s="7"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="7"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="15"/>
       <c r="G233" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H233" s="17" t="s">
+      <c r="H233" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I233" s="2" t="s">
@@ -4400,13 +4717,13 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="4:10">
-      <c r="D234" s="7"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="7"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="15"/>
       <c r="G234" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H234" s="17" t="s">
+      <c r="H234" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I234" s="2" t="s">
@@ -4415,13 +4732,13 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="4:10">
-      <c r="D235" s="7"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="7"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="15"/>
       <c r="G235" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H235" s="17" t="s">
+      <c r="H235" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I235" s="2" t="s">
@@ -4430,13 +4747,13 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="4:10">
-      <c r="D236" s="7"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="8"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="14"/>
       <c r="G236" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H236" s="17" t="s">
+      <c r="H236" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I236" s="2" t="s">
@@ -4445,17 +4762,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="4:10">
-      <c r="D237" s="7"/>
-      <c r="E237" s="12" t="s">
+      <c r="D237" s="15"/>
+      <c r="E237" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="F237" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G237" s="9" t="s">
+      <c r="G237" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H237" s="18" t="s">
+      <c r="H237" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I237" s="2" t="s">
@@ -4464,43 +4781,43 @@
       <c r="J237" s="1"/>
     </row>
     <row r="238" spans="4:10">
-      <c r="D238" s="7"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="9" t="s">
+      <c r="D238" s="15"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H238" s="18"/>
+      <c r="H238" s="11"/>
       <c r="I238" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J238" s="1"/>
     </row>
     <row r="239" spans="4:10">
-      <c r="D239" s="7"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="9" t="s">
+      <c r="D239" s="15"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H239" s="18"/>
+      <c r="H239" s="11"/>
       <c r="I239" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J239" s="1"/>
     </row>
     <row r="240" spans="4:10">
-      <c r="D240" s="7"/>
-      <c r="E240" s="12" t="s">
+      <c r="D240" s="15"/>
+      <c r="E240" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="F240" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G240" s="9" t="s">
+      <c r="G240" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H240" s="18" t="s">
+      <c r="H240" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I240" s="2" t="s">
@@ -4509,45 +4826,45 @@
       <c r="J240" s="1"/>
     </row>
     <row r="241" spans="4:10">
-      <c r="D241" s="7"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="9" t="s">
+      <c r="D241" s="15"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H241" s="18"/>
+      <c r="H241" s="11"/>
       <c r="I241" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J241" s="1"/>
     </row>
     <row r="242" spans="4:10">
-      <c r="D242" s="7"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="9" t="s">
+      <c r="D242" s="15"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H242" s="18"/>
+      <c r="H242" s="11"/>
       <c r="I242" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J242" s="1"/>
     </row>
     <row r="243" spans="4:10" ht="27">
-      <c r="D243" s="10" t="s">
+      <c r="D243" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E243" s="12" t="s">
+      <c r="E243" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="F243" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H243" s="17" t="s">
+      <c r="H243" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I243" s="2" t="s">
@@ -4556,56 +4873,56 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="4:10">
-      <c r="D244" s="10"/>
-      <c r="E244" s="13"/>
-      <c r="F244" s="7"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="15"/>
       <c r="G244" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H244" s="17"/>
+      <c r="H244" s="10"/>
       <c r="I244" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="4:10">
-      <c r="D245" s="10"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="7"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="15"/>
       <c r="G245" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H245" s="17"/>
+      <c r="H245" s="10"/>
       <c r="I245" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J245" s="2"/>
     </row>
     <row r="246" spans="4:10">
-      <c r="D246" s="10"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="8"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="14"/>
       <c r="G246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H246" s="17"/>
+      <c r="H246" s="10"/>
       <c r="I246" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J246" s="2"/>
     </row>
     <row r="247" spans="4:10" ht="40.5">
-      <c r="D247" s="10"/>
-      <c r="E247" s="12" t="s">
+      <c r="D247" s="19"/>
+      <c r="E247" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F247" s="6" t="s">
+      <c r="F247" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H247" s="17" t="s">
+      <c r="H247" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I247" s="2" t="s">
@@ -4614,52 +4931,52 @@
       <c r="J247" s="2"/>
     </row>
     <row r="248" spans="4:10">
-      <c r="D248" s="10"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="7"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="15"/>
       <c r="G248" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H248" s="17"/>
+      <c r="H248" s="10"/>
       <c r="I248" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J248" s="2"/>
     </row>
     <row r="249" spans="4:10">
-      <c r="D249" s="10"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="7"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="15"/>
       <c r="G249" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H249" s="17"/>
+      <c r="H249" s="10"/>
       <c r="I249" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J249" s="2"/>
     </row>
     <row r="250" spans="4:10">
-      <c r="D250" s="10"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="7"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="15"/>
       <c r="G250" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H250" s="17"/>
+      <c r="H250" s="10"/>
       <c r="I250" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J250" s="2"/>
     </row>
     <row r="251" spans="4:10">
-      <c r="D251" s="10"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="8"/>
+      <c r="D251" s="19"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="14"/>
       <c r="G251" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H251" s="17" t="s">
+      <c r="H251" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I251" s="2" t="s">
@@ -4668,30 +4985,30 @@
       <c r="J251" s="2"/>
     </row>
     <row r="252" spans="4:10">
-      <c r="D252" s="10"/>
-      <c r="E252" s="12" t="s">
+      <c r="D252" s="19"/>
+      <c r="E252" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F252" s="6" t="s">
+      <c r="F252" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H252" s="17"/>
+      <c r="H252" s="10"/>
       <c r="I252" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J252" s="2"/>
     </row>
     <row r="253" spans="4:10">
-      <c r="D253" s="10"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="7"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="15"/>
       <c r="G253" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H253" s="17" t="s">
+      <c r="H253" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I253" s="2" t="s">
@@ -4700,26 +5017,26 @@
       <c r="J253" s="2"/>
     </row>
     <row r="254" spans="4:10">
-      <c r="D254" s="10"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="7"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="15"/>
       <c r="G254" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H254" s="17"/>
+      <c r="H254" s="10"/>
       <c r="I254" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J254" s="2"/>
     </row>
     <row r="255" spans="4:10" ht="27">
-      <c r="D255" s="10"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="7"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="15"/>
       <c r="G255" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H255" s="17" t="s">
+      <c r="H255" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I255" s="2" t="s">
@@ -4728,13 +5045,13 @@
       <c r="J255" s="2"/>
     </row>
     <row r="256" spans="4:10">
-      <c r="D256" s="10"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="7"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="15"/>
       <c r="G256" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H256" s="17" t="s">
+      <c r="H256" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I256" s="2" t="s">
@@ -4743,13 +5060,13 @@
       <c r="J256" s="2"/>
     </row>
     <row r="257" spans="4:10">
-      <c r="D257" s="10"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="7"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="15"/>
       <c r="G257" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H257" s="17" t="s">
+      <c r="H257" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I257" s="2" t="s">
@@ -4758,13 +5075,13 @@
       <c r="J257" s="2"/>
     </row>
     <row r="258" spans="4:10">
-      <c r="D258" s="10"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="8"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="14"/>
       <c r="G258" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H258" s="17" t="s">
+      <c r="H258" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I258" s="2" t="s">
@@ -4773,17 +5090,17 @@
       <c r="J258" s="2"/>
     </row>
     <row r="259" spans="4:10">
-      <c r="D259" s="10"/>
-      <c r="E259" s="12" t="s">
+      <c r="D259" s="19"/>
+      <c r="E259" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F259" s="6" t="s">
+      <c r="F259" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G259" s="9" t="s">
+      <c r="G259" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H259" s="18" t="s">
+      <c r="H259" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I259" s="2" t="s">
@@ -4792,42 +5109,42 @@
       <c r="J259" s="1"/>
     </row>
     <row r="260" spans="4:10">
-      <c r="D260" s="10"/>
-      <c r="E260" s="13"/>
-      <c r="F260" s="7"/>
-      <c r="G260" s="9" t="s">
+      <c r="D260" s="19"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H260" s="18"/>
+      <c r="H260" s="11"/>
       <c r="I260" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J260" s="1"/>
     </row>
     <row r="261" spans="4:10">
-      <c r="D261" s="10"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="9" t="s">
+      <c r="D261" s="19"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H261" s="18"/>
+      <c r="H261" s="11"/>
       <c r="I261" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J261" s="1"/>
     </row>
     <row r="262" spans="4:10">
-      <c r="D262" s="6" t="s">
+      <c r="D262" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E262" s="12" t="s">
+      <c r="E262" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F262" s="6" t="s">
+      <c r="F262" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G262" s="9" t="s">
+      <c r="G262" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H262" s="1"/>
@@ -4837,10 +5154,10 @@
       <c r="J262" s="1"/>
     </row>
     <row r="263" spans="4:10">
-      <c r="D263" s="7"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="9" t="s">
+      <c r="D263" s="15"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H263" s="1"/>
@@ -4850,10 +5167,10 @@
       <c r="J263" s="1"/>
     </row>
     <row r="264" spans="4:10">
-      <c r="D264" s="7"/>
-      <c r="E264" s="13"/>
-      <c r="F264" s="7"/>
-      <c r="G264" s="9" t="s">
+      <c r="D264" s="15"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H264" s="1"/>
@@ -4863,10 +5180,10 @@
       <c r="J264" s="1"/>
     </row>
     <row r="265" spans="4:10">
-      <c r="D265" s="7"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="9" t="s">
+      <c r="D265" s="15"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="6" t="s">
         <v>78</v>
       </c>
       <c r="H265" s="1"/>
@@ -4876,14 +5193,14 @@
       <c r="J265" s="1"/>
     </row>
     <row r="266" spans="4:10">
-      <c r="D266" s="7"/>
+      <c r="D266" s="15"/>
       <c r="E266" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G266" s="9" t="s">
+      <c r="G266" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -4895,14 +5212,14 @@
       <c r="J266" s="1"/>
     </row>
     <row r="267" spans="4:10">
-      <c r="D267" s="7"/>
+      <c r="D267" s="15"/>
       <c r="E267" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G267" s="9" t="s">
+      <c r="G267" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -4914,17 +5231,17 @@
       <c r="J267" s="1"/>
     </row>
     <row r="268" spans="4:10" ht="54">
-      <c r="D268" s="7"/>
+      <c r="D268" s="15"/>
       <c r="E268" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G268" s="9" t="s">
+      <c r="G268" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H268" s="15" t="s">
+      <c r="H268" s="8" t="s">
         <v>97</v>
       </c>
       <c r="I268" s="2" t="s">
@@ -4933,14 +5250,14 @@
       <c r="J268" s="1"/>
     </row>
     <row r="269" spans="4:10">
-      <c r="D269" s="7"/>
-      <c r="E269" s="12" t="s">
+      <c r="D269" s="15"/>
+      <c r="E269" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F269" s="6" t="s">
+      <c r="F269" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G269" s="9" t="s">
+      <c r="G269" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -4952,10 +5269,10 @@
       <c r="J269" s="1"/>
     </row>
     <row r="270" spans="4:10">
-      <c r="D270" s="7"/>
-      <c r="E270" s="13"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="9" t="s">
+      <c r="D270" s="15"/>
+      <c r="E270" s="17"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H270" s="1"/>
@@ -4965,10 +5282,10 @@
       <c r="J270" s="1"/>
     </row>
     <row r="271" spans="4:10">
-      <c r="D271" s="7"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="9" t="s">
+      <c r="D271" s="15"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H271" s="1"/>
@@ -4978,10 +5295,10 @@
       <c r="J271" s="1"/>
     </row>
     <row r="272" spans="4:10">
-      <c r="D272" s="7"/>
-      <c r="E272" s="13"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="9" t="s">
+      <c r="D272" s="15"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H272" s="1"/>
@@ -4991,10 +5308,10 @@
       <c r="J272" s="1"/>
     </row>
     <row r="273" spans="4:10">
-      <c r="D273" s="8"/>
-      <c r="E273" s="14"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="9" t="s">
+      <c r="D273" s="14"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="6" t="s">
         <v>90</v>
       </c>
       <c r="H273" s="1"/>
@@ -5004,16 +5321,16 @@
       <c r="J273" s="1"/>
     </row>
     <row r="274" spans="4:10">
-      <c r="D274" s="6" t="s">
+      <c r="D274" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E274" s="12" t="s">
+      <c r="E274" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F274" s="6" t="s">
+      <c r="F274" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G274" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H274" s="1"/>
@@ -5023,10 +5340,10 @@
       <c r="J274" s="1"/>
     </row>
     <row r="275" spans="4:10">
-      <c r="D275" s="7"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="9" t="s">
+      <c r="D275" s="15"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="6" t="s">
         <v>93</v>
       </c>
       <c r="H275" s="1"/>
@@ -5036,10 +5353,10 @@
       <c r="J275" s="1"/>
     </row>
     <row r="276" spans="4:10">
-      <c r="D276" s="7"/>
-      <c r="E276" s="13"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="9" t="s">
+      <c r="D276" s="15"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="6" t="s">
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
@@ -5051,10 +5368,10 @@
       <c r="J276" s="1"/>
     </row>
     <row r="277" spans="4:10">
-      <c r="D277" s="8"/>
-      <c r="E277" s="14"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="9" t="s">
+      <c r="D277" s="14"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="6" t="s">
         <v>95</v>
       </c>
       <c r="H277" s="1"/>
@@ -5064,14 +5381,14 @@
       <c r="J277" s="1"/>
     </row>
     <row r="278" spans="4:10">
-      <c r="D278" s="6" t="s">
+      <c r="D278" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F278" s="1"/>
-      <c r="G278" s="9"/>
+      <c r="G278" s="6"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="2" t="s">
@@ -5079,12 +5396,12 @@
       </c>
     </row>
     <row r="279" spans="4:10">
-      <c r="D279" s="8"/>
+      <c r="D279" s="14"/>
       <c r="E279" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F279" s="1"/>
-      <c r="G279" s="9"/>
+      <c r="G279" s="6"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="2" t="s">
@@ -5095,11 +5412,11 @@
       <c r="D280" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E280" s="15" t="s">
+      <c r="E280" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F280" s="1"/>
-      <c r="G280" s="9"/>
+      <c r="G280" s="6"/>
       <c r="H280" s="1"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2" t="s">
@@ -5108,11 +5425,11 @@
     </row>
     <row r="281" spans="4:10">
       <c r="D281" s="1"/>
-      <c r="E281" s="15" t="s">
+      <c r="E281" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F281" s="1"/>
-      <c r="G281" s="9"/>
+      <c r="G281" s="6"/>
       <c r="H281" s="1"/>
       <c r="I281" s="2" t="s">
         <v>101</v>
@@ -5123,11 +5440,11 @@
     </row>
     <row r="282" spans="4:10">
       <c r="D282" s="1"/>
-      <c r="E282" s="15" t="s">
+      <c r="E282" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F282" s="1"/>
-      <c r="G282" s="9"/>
+      <c r="G282" s="6"/>
       <c r="H282" s="1"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2" t="s">
@@ -5136,11 +5453,11 @@
     </row>
     <row r="283" spans="4:10">
       <c r="D283" s="1"/>
-      <c r="E283" s="15" t="s">
+      <c r="E283" s="8" t="s">
         <v>119</v>
       </c>
       <c r="F283" s="1"/>
-      <c r="G283" s="9"/>
+      <c r="G283" s="6"/>
       <c r="H283" s="1"/>
       <c r="I283" s="2" t="s">
         <v>101</v>
@@ -5151,123 +5468,218 @@
     </row>
     <row r="284" spans="4:10">
       <c r="D284" s="1"/>
-      <c r="E284" s="15"/>
+      <c r="E284" s="8"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="9"/>
+      <c r="G284" s="6"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
     </row>
     <row r="285" spans="4:10">
       <c r="D285" s="1"/>
-      <c r="E285" s="15"/>
+      <c r="E285" s="8"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="9"/>
+      <c r="G285" s="6"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
     </row>
     <row r="286" spans="4:10">
       <c r="D286" s="1"/>
-      <c r="E286" s="15"/>
+      <c r="E286" s="8"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="9"/>
+      <c r="G286" s="6"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
     <row r="287" spans="4:10">
       <c r="D287" s="1"/>
-      <c r="E287" s="15"/>
+      <c r="E287" s="8"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="9"/>
+      <c r="G287" s="6"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
     </row>
     <row r="288" spans="4:10">
       <c r="D288" s="1"/>
-      <c r="E288" s="15"/>
+      <c r="E288" s="8"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="9"/>
+      <c r="G288" s="6"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
     <row r="289" spans="4:10">
       <c r="D289" s="1"/>
-      <c r="E289" s="15"/>
+      <c r="E289" s="8"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="9"/>
+      <c r="G289" s="6"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
     <row r="290" spans="4:10">
       <c r="D290" s="1"/>
-      <c r="E290" s="15"/>
+      <c r="E290" s="8"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="9"/>
+      <c r="G290" s="6"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
     <row r="291" spans="4:10">
       <c r="D291" s="1"/>
-      <c r="E291" s="15"/>
+      <c r="E291" s="8"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="9"/>
+      <c r="G291" s="6"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
     <row r="292" spans="4:10">
       <c r="D292" s="1"/>
-      <c r="E292" s="15"/>
+      <c r="E292" s="8"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="9"/>
+      <c r="G292" s="6"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
     <row r="293" spans="4:10">
       <c r="D293" s="1"/>
-      <c r="E293" s="15"/>
+      <c r="E293" s="8"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="9"/>
+      <c r="G293" s="6"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
     <row r="294" spans="4:10">
       <c r="D294" s="1"/>
-      <c r="E294" s="15"/>
+      <c r="E294" s="8"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="9"/>
+      <c r="G294" s="6"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
     <row r="295" spans="4:10">
       <c r="D295" s="1"/>
-      <c r="E295" s="15"/>
+      <c r="E295" s="8"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="9"/>
+      <c r="G295" s="6"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
     <row r="296" spans="4:10">
       <c r="D296" s="1"/>
-      <c r="E296" s="15"/>
+      <c r="E296" s="8"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="9"/>
+      <c r="G296" s="6"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="D10:D60"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="E81:E89"/>
+    <mergeCell ref="F81:F89"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="D61:D116"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="F104:F110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="D117:D142"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="F133:F139"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="D143:D168"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="F143:F146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="F147:F151"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="F159:F165"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="F126:F132"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="F152:F158"/>
+    <mergeCell ref="E178:E184"/>
+    <mergeCell ref="F178:F184"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="E252:E258"/>
+    <mergeCell ref="F252:F258"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="F259:F261"/>
+    <mergeCell ref="F195:F198"/>
+    <mergeCell ref="E195:E198"/>
+    <mergeCell ref="D169:D198"/>
+    <mergeCell ref="D199:D242"/>
+    <mergeCell ref="E199:E202"/>
+    <mergeCell ref="F199:F202"/>
+    <mergeCell ref="E203:E207"/>
+    <mergeCell ref="F203:F207"/>
+    <mergeCell ref="E215:E221"/>
+    <mergeCell ref="F215:F221"/>
+    <mergeCell ref="E229:E236"/>
+    <mergeCell ref="F229:F236"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="F237:F239"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="E173:E177"/>
+    <mergeCell ref="F173:F177"/>
+    <mergeCell ref="E185:E191"/>
+    <mergeCell ref="F185:F191"/>
     <mergeCell ref="D278:D279"/>
     <mergeCell ref="F70:F72"/>
     <mergeCell ref="E70:E73"/>
@@ -5292,101 +5704,6 @@
     <mergeCell ref="F243:F246"/>
     <mergeCell ref="E247:E251"/>
     <mergeCell ref="F247:F251"/>
-    <mergeCell ref="E252:E258"/>
-    <mergeCell ref="F252:F258"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="F259:F261"/>
-    <mergeCell ref="F195:F198"/>
-    <mergeCell ref="E195:E198"/>
-    <mergeCell ref="D169:D198"/>
-    <mergeCell ref="D199:D242"/>
-    <mergeCell ref="E199:E202"/>
-    <mergeCell ref="F199:F202"/>
-    <mergeCell ref="E203:E207"/>
-    <mergeCell ref="F203:F207"/>
-    <mergeCell ref="E215:E221"/>
-    <mergeCell ref="F215:F221"/>
-    <mergeCell ref="E229:E236"/>
-    <mergeCell ref="F229:F236"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="F237:F239"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="E173:E177"/>
-    <mergeCell ref="F173:F177"/>
-    <mergeCell ref="E185:E191"/>
-    <mergeCell ref="F185:F191"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="F126:F132"/>
-    <mergeCell ref="E152:E158"/>
-    <mergeCell ref="F152:F158"/>
-    <mergeCell ref="E178:E184"/>
-    <mergeCell ref="F178:F184"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="D143:D168"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="F143:F146"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="F147:F151"/>
-    <mergeCell ref="E159:E165"/>
-    <mergeCell ref="F159:F165"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="D117:D142"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="F121:F125"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="F133:F139"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="E81:E89"/>
-    <mergeCell ref="F81:F89"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="D61:D116"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E104:E110"/>
-    <mergeCell ref="F104:F110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="D10:D60"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5396,14 +5713,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="50.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="14.25" thickBot="1"/>
+    <row r="4" spans="3:5" ht="30" customHeight="1">
+      <c r="C4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="40.5">
+      <c r="C5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="54">
+      <c r="C6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="54">
+      <c r="C7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="54">
+      <c r="C8" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="54">
+      <c r="C9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="3:5" ht="81">
+      <c r="C12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="27.75" thickBot="1">
+      <c r="C13" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
